--- a/similarities/split_global/harmonic_similarity_timestamps_3.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:min', 'B:min', 'F#:min']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:27.200000', '0:01:41.180000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:37.927913', '0:00:43.802561')]</t>
+          <t>('0:00:22.518117', '0:00:27.754217')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=87.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=37.927913']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=22.518117</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:26.250000')]</t>
+          <t>('0:00:24.280000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:00.465952', '0:00:08.500330')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:22.020000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:08.620000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+          <t>('0:00:21.780000', '0:00:31.740000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
+          <t>('0:00:59.900000', '0:01:09.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=233.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G'], ['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.943242', '0:01:05.045464'), ('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:31.580000', '0:00:33.420000'), ('0:00:30.820000', '0:00:32.980000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=31.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=30.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:7', 'D:maj/A', 'D:min/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Ab:7', 'Db', 'Db:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.220000', '0:01:12.300000')]</t>
+          <t>('0:00:03.100000', '0:00:11.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:00:36.660000', '0:00:38.430000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=66.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=3.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.600000', '0:00:10.460000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:min7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.880000', '0:01:19')]</t>
+          <t>('0:00:28.130000', '0:00:30.620000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+          <t>('0:00:16.910000', '0:00:18.470000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=63.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=4.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=16.91</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:47.680000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:25', '0:00:35.520000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_35</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000')]</t>
+          <t>('0:00:22.360000', '0:00:25.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.979342', '0:00:16.701519')]</t>
+          <t>('0:00:54.780000', '0:00:57.520000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-35#t=22.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=9.979342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A:min', 'D', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:min', 'E', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000')]</t>
+          <t>('0:00:29.304000', '0:00:37.317000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:31.771269', '0:00:37.280399')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=29.304</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=31.771269</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:08.291354', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:14.033000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=8.291354</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
